--- a/example-output/xslx/ID_cafr2011-statement_of_activities.xlsx
+++ b/example-output/xslx/ID_cafr2011-statement_of_activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ID_cafr2011-statement_of_activi" sheetId="1" r:id="rId1"/>
@@ -818,7 +818,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -873,9 +873,7 @@
         <v>27667</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>162469</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10">
         <v>146819</v>
       </c>
@@ -884,7 +882,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>1028</v>
+        <v>162469</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22" customHeight="1">
@@ -922,7 +920,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>63927</v>
+        <v>97514</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22" customHeight="1">
@@ -966,7 +964,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
-        <v>97514</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1">
@@ -977,9 +975,7 @@
         <v>-15559</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>301021</v>
-      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="12">
         <v>124647</v>
       </c>
@@ -988,7 +984,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>33919</v>
+        <v>63927</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" thickBot="1">
@@ -1326,7 +1322,7 @@
         <v>29798</v>
       </c>
       <c r="D33" s="10">
-        <v>3160919</v>
+        <v>33919</v>
       </c>
       <c r="E33" s="10">
         <v>1622320</v>
@@ -1338,7 +1334,7 @@
         <v>-2279821</v>
       </c>
       <c r="H33" s="11">
-        <v>27861</v>
+        <v>3767516</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
@@ -1350,7 +1346,7 @@
         <v>29798</v>
       </c>
       <c r="D34" s="12">
-        <v>365961</v>
+        <v>27861</v>
       </c>
       <c r="E34" s="12">
         <v>1051527</v>
@@ -1360,7 +1356,7 @@
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
-        <v>3767516</v>
+        <v>606597</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
-        <v>606597</v>
+        <v>48414</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
@@ -1454,7 +1450,7 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
-        <v>27861</v>
+        <v>257162</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1">
@@ -1490,7 +1486,7 @@
         <v>-189428</v>
       </c>
       <c r="D42" s="12">
-        <v>549143</v>
+        <v>27861</v>
       </c>
       <c r="E42" s="12">
         <v>405450</v>
@@ -1500,7 +1496,7 @@
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13">
-        <v>6058</v>
+        <v>301021</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1">
@@ -1522,7 +1518,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12">
-        <v>299743</v>
+        <v>6058</v>
       </c>
       <c r="E44" s="12">
         <v>570793</v>
@@ -1534,7 +1530,7 @@
         <v>-2279821</v>
       </c>
       <c r="H44" s="13">
-        <v>721</v>
+        <v>3160919</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1">
@@ -1544,7 +1540,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12">
-        <v>17575</v>
+        <v>4140</v>
       </c>
       <c r="E45" s="12">
         <v>248199</v>
@@ -1556,7 +1552,7 @@
         <v>113051</v>
       </c>
       <c r="H45" s="13">
-        <v>595</v>
+        <v>549143</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1">
@@ -1565,7 +1561,9 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12">
+        <v>595</v>
+      </c>
       <c r="E46" s="12">
         <v>12954</v>
       </c>
@@ -1576,7 +1574,7 @@
         <v>-1463734</v>
       </c>
       <c r="H46" s="13">
-        <v>5</v>
+        <v>299743</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1">
@@ -1598,7 +1596,7 @@
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12">
-        <v>81395</v>
+        <v>597</v>
       </c>
       <c r="E48" s="12">
         <v>114669</v>
@@ -1610,7 +1608,7 @@
         <v>-256480</v>
       </c>
       <c r="H48" s="13">
-        <v>257162</v>
+        <v>81395</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1">
@@ -1636,7 +1634,7 @@
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12">
-        <v>1847102</v>
+        <v>721</v>
       </c>
       <c r="E50" s="12">
         <v>133317</v>
@@ -1648,7 +1646,7 @@
         <v>258796</v>
       </c>
       <c r="H50" s="13">
-        <v>4140</v>
+        <v>365961</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1">
@@ -1668,7 +1666,7 @@
         <v>-640081</v>
       </c>
       <c r="H51" s="13">
-        <v>597</v>
+        <v>1847102</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1">
@@ -1677,7 +1675,9 @@
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>5</v>
+      </c>
       <c r="E52" s="12">
         <v>37854</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>-240600</v>
       </c>
       <c r="H52" s="13">
-        <v>48414</v>
+        <v>17575</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1">
